--- a/Trade History.xlsx
+++ b/Trade History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26D3FF-1B6E-4A04-828C-4C214D9196B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0A2F4-4459-4608-8F2C-DC1083466153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
     <sheet name="PEPE" sheetId="8" r:id="rId3"/>
     <sheet name="BTC" sheetId="2" r:id="rId4"/>
     <sheet name="JASMY" sheetId="3" r:id="rId5"/>
-    <sheet name="SOL" sheetId="4" r:id="rId6"/>
+    <sheet name="ETH" sheetId="4" r:id="rId6"/>
     <sheet name="TRX" sheetId="6" r:id="rId7"/>
-    <sheet name="ETH" sheetId="5" r:id="rId8"/>
+    <sheet name="SOL" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="289">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -788,9 +788,6 @@
     <t>0.00000023</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>Fiat</t>
   </si>
   <si>
@@ -812,15 +809,6 @@
     <t>+0.00302637 BTC</t>
   </si>
   <si>
-    <t>+0.00155548 BTC</t>
-  </si>
-  <si>
-    <t>+0.00084584 BTC</t>
-  </si>
-  <si>
-    <t>+0.00051197 BTC</t>
-  </si>
-  <si>
     <t>+4804.58606935 JASMY</t>
   </si>
   <si>
@@ -851,12 +839,6 @@
     <t>+0.13982043 SOL</t>
   </si>
   <si>
-    <t>Subscribe</t>
-  </si>
-  <si>
-    <t>Simple Earn Locked</t>
-  </si>
-  <si>
     <t>-0.32302779 SOL</t>
   </si>
   <si>
@@ -875,22 +857,43 @@
     <t>+0.00840723 ETH</t>
   </si>
   <si>
-    <t>+163.24640485 TRX</t>
-  </si>
-  <si>
-    <t>-155.82814242 TRX</t>
-  </si>
-  <si>
-    <t>-50 TRX</t>
-  </si>
-  <si>
-    <t>+205.82814242 TRX</t>
-  </si>
-  <si>
     <t>+288.7121952 BB</t>
   </si>
   <si>
     <t>+6928298.24 PEPE</t>
+  </si>
+  <si>
+    <t>Achat</t>
+  </si>
+  <si>
+    <t>Vente</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>-5181574 PEPE</t>
+  </si>
+  <si>
+    <t>-1746724 PEPE</t>
+  </si>
+  <si>
+    <t>+985 TRX</t>
+  </si>
+  <si>
+    <t>Frais de trading</t>
+  </si>
+  <si>
+    <t>-0.985 TRX</t>
+  </si>
+  <si>
+    <t>+453 TRX</t>
+  </si>
+  <si>
+    <t>Souscription</t>
+  </si>
+  <si>
+    <t>Simple Earn verrouillé</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -2519,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129E35DA-5B24-4B98-880D-C522EE1B7F7C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,12 +2533,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2545,7 +2548,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2555,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35A0A10-D438-4DCB-A3C1-FACE54B1526A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,24 +2569,64 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45437.975694444445</v>
+        <v>45479.755555555559</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45458.037499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45437.975694444445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2593,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA6D5CD-FCFD-4C7D-A219-D2B94B990A78}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,12 +2649,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2621,17 +2664,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2641,17 +2684,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2661,17 +2704,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2681,17 +2724,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2701,17 +2744,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2721,82 +2764,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45436.474305555559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>45426.682638888888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45422.879166666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>45419.010416666664</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2777,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,12 +2787,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2834,7 +2802,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2844,10 +2812,161 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49648B4-4F4D-46B9-AF9A-6D00AC7AA5B3}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45436.977083333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45422.879861111112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45419.018750000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9207F76-450F-4B61-BABD-9908D7516394}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45529.991666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45529.991666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45529.989583333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79554145-FEA8-42C4-9A46-1B68437AF1F7}">
   <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,12 +2976,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2872,17 +2991,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2892,17 +3011,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2912,17 +3031,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2932,17 +3051,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2952,17 +3071,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2972,17 +3091,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -2992,17 +3111,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -3012,17 +3131,17 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3032,17 +3151,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -3052,17 +3171,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -3072,17 +3191,17 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -3092,17 +3211,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -3112,17 +3231,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3132,17 +3251,17 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -3152,17 +3271,17 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -3172,17 +3291,17 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -3192,17 +3311,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -3212,12 +3331,12 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -3232,17 +3351,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -3252,17 +3371,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -3272,17 +3391,17 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -3292,17 +3411,17 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -3312,183 +3431,7 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9207F76-450F-4B61-BABD-9908D7516394}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45422.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45422.137499999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45422.132638888892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45421.980555555558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79554145-FEA8-42C4-9A46-1B68437AF1F7}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45436.977083333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45422.879861111112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45419.018750000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Trade History.xlsx
+++ b/Trade History.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0A2F4-4459-4608-8F2C-DC1083466153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648BFE4-8739-4470-9C8E-AE6D79F10CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="BB" sheetId="7" r:id="rId2"/>
-    <sheet name="PEPE" sheetId="8" r:id="rId3"/>
-    <sheet name="BTC" sheetId="2" r:id="rId4"/>
-    <sheet name="JASMY" sheetId="3" r:id="rId5"/>
-    <sheet name="ETH" sheetId="4" r:id="rId6"/>
-    <sheet name="TRX" sheetId="6" r:id="rId7"/>
-    <sheet name="SOL" sheetId="5" r:id="rId8"/>
+    <sheet name="Feuil1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="273">
   <si>
     <t>Date(UTC)</t>
   </si>
@@ -788,112 +793,64 @@
     <t>0.00000023</t>
   </si>
   <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>+0.00150223 BTC</t>
-  </si>
-  <si>
-    <t>+0.00150077 BTC</t>
-  </si>
-  <si>
-    <t>+0.00150465 BTC</t>
-  </si>
-  <si>
-    <t>+0.00226049 BTC</t>
-  </si>
-  <si>
-    <t>+0.00225932 BTC</t>
-  </si>
-  <si>
-    <t>+0.00302637 BTC</t>
-  </si>
-  <si>
-    <t>+4804.58606935 JASMY</t>
-  </si>
-  <si>
-    <t>+1.27268619 SOL</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>action-LOCKED_REWARDS</t>
-  </si>
-  <si>
-    <t>+0.00006195 SOL</t>
-  </si>
-  <si>
-    <t>+0.62376507 SOL</t>
-  </si>
-  <si>
-    <t>+0.69880221 SOL</t>
-  </si>
-  <si>
-    <t>Convert</t>
-  </si>
-  <si>
-    <t>+0.00088761 SOL</t>
-  </si>
-  <si>
-    <t>+0.13982043 SOL</t>
-  </si>
-  <si>
-    <t>-0.32302779 SOL</t>
-  </si>
-  <si>
-    <t>+0.13634722 SOL</t>
-  </si>
-  <si>
-    <t>+0.18668057 SOL</t>
-  </si>
-  <si>
-    <t>+0.04197546 ETH</t>
-  </si>
-  <si>
-    <t>+0.00533729 ETH</t>
-  </si>
-  <si>
-    <t>+0.00840723 ETH</t>
-  </si>
-  <si>
-    <t>+288.7121952 BB</t>
-  </si>
-  <si>
-    <t>+6928298.24 PEPE</t>
-  </si>
-  <si>
-    <t>Achat</t>
-  </si>
-  <si>
-    <t>Vente</t>
-  </si>
-  <si>
-    <t>Spot</t>
-  </si>
-  <si>
-    <t>-5181574 PEPE</t>
-  </si>
-  <si>
-    <t>-1746724 PEPE</t>
-  </si>
-  <si>
-    <t>+985 TRX</t>
-  </si>
-  <si>
-    <t>Frais de trading</t>
-  </si>
-  <si>
-    <t>-0.985 TRX</t>
-  </si>
-  <si>
-    <t>+453 TRX</t>
-  </si>
-  <si>
-    <t>Souscription</t>
-  </si>
-  <si>
-    <t>Simple Earn verrouillé</t>
+    <t>SOLEUR</t>
+  </si>
+  <si>
+    <t>BTCEUR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ETHEUR</t>
+  </si>
+  <si>
+    <t>UMAEUR</t>
+  </si>
+  <si>
+    <t>TRXEUR</t>
+  </si>
+  <si>
+    <t>RNDREUR</t>
+  </si>
+  <si>
+    <t>FETEUR</t>
+  </si>
+  <si>
+    <t>MKREUR</t>
+  </si>
+  <si>
+    <t>USDTEUR</t>
+  </si>
+  <si>
+    <t>TNSREUR</t>
+  </si>
+  <si>
+    <t>2,752,33311287</t>
+  </si>
+  <si>
+    <t>NEAREUR</t>
+  </si>
+  <si>
+    <t>PEPEEUR</t>
+  </si>
+  <si>
+    <t>XRPEUR</t>
+  </si>
+  <si>
+    <t>BBEUR</t>
+  </si>
+  <si>
+    <t>JASMYEUR</t>
+  </si>
+  <si>
+    <t>LPTEUR</t>
+  </si>
+  <si>
+    <t>ENSEUR</t>
+  </si>
+  <si>
+    <t>OMEUR</t>
   </si>
 </sst>
 </file>
@@ -1283,15 +1240,15 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="20.85546875" customWidth="1"/>
+    <col min="1" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +1378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1499,7 +1456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1525,7 +1482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1551,7 +1508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1603,7 +1560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -1629,7 +1586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1655,7 +1612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -1681,7 +1638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -1707,7 +1664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -1733,7 +1690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
@@ -1759,7 +1716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
@@ -1785,7 +1742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>111</v>
       </c>
@@ -1811,7 +1768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>111</v>
       </c>
@@ -1837,7 +1794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>120</v>
       </c>
@@ -1863,7 +1820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>120</v>
       </c>
@@ -1889,7 +1846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
@@ -1915,7 +1872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>134</v>
       </c>
@@ -1941,7 +1898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>140</v>
       </c>
@@ -1967,7 +1924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>146</v>
       </c>
@@ -1993,7 +1950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>151</v>
       </c>
@@ -2019,7 +1976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>151</v>
       </c>
@@ -2045,7 +2002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
@@ -2071,7 +2028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -2097,7 +2054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>151</v>
       </c>
@@ -2123,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>170</v>
       </c>
@@ -2149,7 +2106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
@@ -2175,7 +2132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
@@ -2201,7 +2158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
@@ -2227,7 +2184,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>189</v>
       </c>
@@ -2253,7 +2210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>195</v>
       </c>
@@ -2279,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>201</v>
       </c>
@@ -2305,7 +2262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>207</v>
       </c>
@@ -2331,7 +2288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>211</v>
       </c>
@@ -2357,7 +2314,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>218</v>
       </c>
@@ -2383,7 +2340,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>224</v>
       </c>
@@ -2409,7 +2366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>230</v>
       </c>
@@ -2435,7 +2392,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>236</v>
       </c>
@@ -2461,7 +2418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -2487,7 +2444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>247</v>
       </c>
@@ -2519,919 +2476,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129E35DA-5B24-4B98-880D-C522EE1B7F7C}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5899C858-CF78-4B76-8020-D0795B61FA2C}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45414.950277777774</v>
+      </c>
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>59899.712723249999</v>
+      </c>
+      <c r="E2">
+        <v>0.18668056999999999</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>0.51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>45438.058333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35A0A10-D438-4DCB-A3C1-FACE54B1526A}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45479.755555555559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45418.969189814816</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>131.18665751</v>
+      </c>
+      <c r="E3">
+        <v>4.0884999999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0.51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45418.977210648147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2912.2689564799998</v>
+      </c>
+      <c r="E4">
+        <v>8.4072299999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>0.51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45421.817245370374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3.8034991200000001</v>
+      </c>
+      <c r="E5">
+        <v>6.4388078499999999</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45421.93954861111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.11898276000000001</v>
+      </c>
+      <c r="E6">
+        <v>205.82814242000001</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>0.51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>45458.037499999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>45422.018043981479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10.234263159999999</v>
+      </c>
+      <c r="E7">
+        <v>2.3929421799999999</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45422.056192129632</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2.1432031</v>
+      </c>
+      <c r="E8">
+        <v>11.426821869999999</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0.51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45422.069872685184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>2583.1506530400002</v>
+      </c>
+      <c r="E9">
+        <v>6.8288699999999999E-3</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>0.36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45422.07099537037</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.93873598000000003</v>
+      </c>
+      <c r="E10">
+        <v>26.088272459999999</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0.51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45422.08221064815</v>
+      </c>
+      <c r="B11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45437.975694444445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA6D5CD-FCFD-4C7D-A219-D2B94B990A78}">
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>143.75063899</v>
+      </c>
+      <c r="E11">
+        <v>0.13634721999999999</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45422.829675925925</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.79988477999999996</v>
+      </c>
+      <c r="E12">
+        <v>18.365145070000001</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45422.831307870372</v>
+      </c>
+      <c r="B13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45439.986111111109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>140.17980062000001</v>
+      </c>
+      <c r="E13">
+        <v>0.13982043</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45422.833622685182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.1200639</v>
+      </c>
+      <c r="E14">
+        <v>163.24640485</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45422.835844907408</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2.10457801</v>
+      </c>
+      <c r="E15">
+        <v>6.9800216099999997</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0.31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45422.837546296294</v>
+      </c>
+      <c r="B16" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>57425.239760140001</v>
+      </c>
+      <c r="E16">
+        <v>5.1197000000000005E-4</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45422.83865740741</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17">
+        <v>5.3372899999999997E-3</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0.31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45422.839930555558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10.580849669999999</v>
+      </c>
+      <c r="E18">
+        <v>1.85240322</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45425.858472222222</v>
+      </c>
+      <c r="B19" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45439.981944444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>140.23996862000001</v>
+      </c>
+      <c r="E19">
+        <v>0.69880220999999998</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45426.641608796293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>57930.577887070001</v>
+      </c>
+      <c r="E20">
+        <v>8.4584000000000005E-4</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45436.433229166665</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>63003.060148639997</v>
+      </c>
+      <c r="E21">
+        <v>1.5554799999999999E-3</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45436.934664351851</v>
+      </c>
+      <c r="B22" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45439.931250000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>157.11043262000001</v>
+      </c>
+      <c r="E22">
+        <v>0.62376507000000003</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45436.935613425929</v>
+      </c>
+      <c r="B23" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45439.927083333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>45439.926388888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45438.454861111109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D29DC1-79F3-49C0-A3DC-72678BE827F8}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45438.104166666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49648B4-4F4D-46B9-AF9A-6D00AC7AA5B3}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45436.977083333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45422.879861111112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45419.018750000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9207F76-450F-4B61-BABD-9908D7516394}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45529.991666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45529.991666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45529.989583333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79554145-FEA8-42C4-9A46-1B68437AF1F7}">
-  <dimension ref="A1:A92"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45438.456250000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3502.0461955599999</v>
+      </c>
+      <c r="E23">
+        <v>4.1975459999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45436.947754629633</v>
+      </c>
+      <c r="B24" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45438.145833333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45437.167361111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45436.975694444445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>2571.01241222</v>
+      </c>
+      <c r="E24">
+        <v>3.8117280000000003E-2</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45437.927314814813</v>
+      </c>
+      <c r="B25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>45436.145138888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45435.15902777778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>7.6274206099999997</v>
+      </c>
+      <c r="E25">
+        <v>12.848380199999999</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45437.934502314813</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1.414E-5</v>
+      </c>
+      <c r="E26">
+        <v>6928298.2400000002</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>45434.152083333334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45438.011793981481</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.50817648999999998</v>
+      </c>
+      <c r="E27">
+        <v>192.84638819</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45438.016701388886</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>0.50915756999999995</v>
+      </c>
+      <c r="E28">
+        <v>288.7121952</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45438.062881944446</v>
+      </c>
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>2.0397180000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>4804.5860693499999</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45438.064282407409</v>
+      </c>
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>21.400680940000001</v>
+      </c>
+      <c r="E30">
+        <v>4.5792935400000001</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>45433.151388888888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45432.152083333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>45431.152083333334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>45430.152083333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45429.152083333334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>45428.15902777778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>45427.152083333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>45426.159722222219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>45425.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>45425.159722222219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45424.145138888889</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <v>45438.066701388889</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>21.880480030000001</v>
+      </c>
+      <c r="E31">
+        <v>3.3587014499999999</v>
+      </c>
+      <c r="F31">
+        <v>75</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>45423.125694444447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>45422.872916666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>45422.131944444445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>45422.123611111114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>45414.991666666669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="H31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45438.413587962961</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>64764.057269930003</v>
+      </c>
+      <c r="E32">
+        <v>3.02637E-3</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45440.886192129627</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>64131.089181479998</v>
+      </c>
+      <c r="E33">
+        <v>7.6406E-4</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45488.037268518521</v>
+      </c>
+      <c r="B34" t="s">
         <v>272</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1.00660569</v>
+      </c>
+      <c r="E34">
+        <v>194.71378021999999</v>
+      </c>
+      <c r="F34">
+        <v>200</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
